--- a/procurement_planning/Python/code/results_MDP_availability.xlsx
+++ b/procurement_planning/Python/code/results_MDP_availability.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,9 +456,10 @@
     <col width="32" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="19" customWidth="1" min="16" max="16"/>
-    <col width="21" customWidth="1" min="17" max="17"/>
+    <col width="22" customWidth="1" min="17" max="17"/>
     <col width="18" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="25" customWidth="1" min="19" max="19"/>
+    <col width="26" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -534,27 +535,32 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Expected Inventory</t>
+          <t>Expected inventory</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Maximum Inventory</t>
+          <t>Maximum inventory</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Expected Shortage</t>
+          <t>Expected shortage</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Maximum Shortage</t>
+          <t>Maximum shortage</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Expected Order</t>
+          <t>Expected order quantity</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Expected supply quantity</t>
         </is>
       </c>
     </row>
@@ -575,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
@@ -599,81 +605,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28.5258</v>
+        <v>33.394</v>
       </c>
       <c r="O2" t="n">
-        <v>2.8119</v>
+        <v>2.7239</v>
       </c>
       <c r="P2" t="n">
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04758931568810708</v>
+        <v>0.05979537369105904</v>
       </c>
       <c r="R2" t="n">
         <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>5.188061653145028</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>27.8597</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.1485</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1890271330214793</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.745199434597494</v>
+        <v>5.194981105957183</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.940204626308944</v>
       </c>
     </row>
   </sheetData>
